--- a/Data/EC/NIT-9004168798.xlsx
+++ b/Data/EC/NIT-9004168798.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B0509C4-9014-40F2-97E8-EB3BBB4CE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB47270B-64E8-45EE-8C03-D047CF1153EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D01773D-BBFE-4FF6-8DCD-A33B960C09C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4AE0A4FD-449F-4408-8BE7-19036B0FE734}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,292 +71,292 @@
     <t>JORGE SANTIAGO PERTUZ MENDOZA</t>
   </si>
   <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>1702</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
     <t>1047388602</t>
   </si>
   <si>
     <t>JOHN EDUARD ARREDONDO HUERTAS</t>
   </si>
   <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
     <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -455,7 +455,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -468,9 +470,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -670,23 +670,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,10 +714,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,7 +770,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88699DC2-4CA5-780C-F309-01826E2E9057}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24329855-BD82-F579-D151-68A4250E5B48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F818A731-89AE-43A8-B9B8-E1B6C48D3E43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA0C850-E1D6-4B89-BCA5-E38BD439D810}">
   <dimension ref="B2:J115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1460,7 +1460,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>20833</v>
+        <v>7861</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1483,7 +1483,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1506,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1529,7 +1529,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1552,7 +1552,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1575,7 +1575,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1598,7 +1598,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1621,7 +1621,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1644,7 +1644,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1667,7 +1667,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1690,7 +1690,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29480</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -3208,7 +3208,7 @@
         <v>96</v>
       </c>
       <c r="F99" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3231,7 +3231,7 @@
         <v>97</v>
       </c>
       <c r="F100" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3254,7 +3254,7 @@
         <v>98</v>
       </c>
       <c r="F101" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3277,7 +3277,7 @@
         <v>99</v>
       </c>
       <c r="F102" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3300,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="F103" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3323,7 +3323,7 @@
         <v>101</v>
       </c>
       <c r="F104" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3346,7 +3346,7 @@
         <v>102</v>
       </c>
       <c r="F105" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3369,7 +3369,7 @@
         <v>103</v>
       </c>
       <c r="F106" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3392,7 +3392,7 @@
         <v>104</v>
       </c>
       <c r="F107" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3415,7 +3415,7 @@
         <v>105</v>
       </c>
       <c r="F108" s="18">
-        <v>29480</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3438,7 +3438,7 @@
         <v>106</v>
       </c>
       <c r="F109" s="24">
-        <v>7861</v>
+        <v>20833</v>
       </c>
       <c r="G109" s="24">
         <v>781242</v>
